--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>5492.408068779319</v>
+        <v>10.56188204926044</v>
       </c>
       <c r="R2">
-        <v>5492.408068779319</v>
+        <v>95.05693844334401</v>
       </c>
       <c r="S2">
-        <v>0.08087721564481237</v>
+        <v>0.0001407321126003455</v>
       </c>
       <c r="T2">
-        <v>0.08087721564481237</v>
+        <v>0.0001407321126003455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>7753.890780800811</v>
+        <v>4.847039549239112</v>
       </c>
       <c r="R3">
-        <v>7753.890780800811</v>
+        <v>43.62335594315201</v>
       </c>
       <c r="S3">
-        <v>0.1141781690129453</v>
+        <v>6.458452314089327E-05</v>
       </c>
       <c r="T3">
-        <v>0.1141781690129453</v>
+        <v>6.458452314089327E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>5882.075929275376</v>
+        <v>6651.185662619624</v>
       </c>
       <c r="R4">
-        <v>5882.075929275376</v>
+        <v>59860.67096357662</v>
       </c>
       <c r="S4">
-        <v>0.08661518179527659</v>
+        <v>0.08862392187603824</v>
       </c>
       <c r="T4">
-        <v>0.08661518179527659</v>
+        <v>0.08862392187603824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>132.4917188907785</v>
+        <v>8971.574730739159</v>
       </c>
       <c r="R5">
-        <v>132.4917188907785</v>
+        <v>80744.17257665243</v>
       </c>
       <c r="S5">
-        <v>0.001950976909525748</v>
+        <v>0.119542015269637</v>
       </c>
       <c r="T5">
-        <v>0.001950976909525748</v>
+        <v>0.119542015269637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>12652.96518795495</v>
+        <v>6917.2232050452</v>
       </c>
       <c r="R6">
-        <v>12652.96518795495</v>
+        <v>62255.00884540681</v>
       </c>
       <c r="S6">
-        <v>0.1863183837103298</v>
+        <v>0.09216874705037137</v>
       </c>
       <c r="T6">
-        <v>0.1863183837103298</v>
+        <v>0.09216874705037134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>17862.78602975002</v>
+        <v>177.6338448030058</v>
       </c>
       <c r="R7">
-        <v>17862.78602975002</v>
+        <v>1598.704603227052</v>
       </c>
       <c r="S7">
-        <v>0.2630344249105139</v>
+        <v>0.002366887466822198</v>
       </c>
       <c r="T7">
-        <v>0.2630344249105139</v>
+        <v>0.002366887466822198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>13550.65046770462</v>
+        <v>22.03465562043289</v>
       </c>
       <c r="R8">
-        <v>13550.65046770462</v>
+        <v>198.311900583896</v>
       </c>
       <c r="S8">
-        <v>0.1995370457329467</v>
+        <v>0.0002936014264713106</v>
       </c>
       <c r="T8">
-        <v>0.1995370457329467</v>
+        <v>0.0002936014264713106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>305.2236989357411</v>
+        <v>10.11210376597422</v>
       </c>
       <c r="R9">
-        <v>305.2236989357411</v>
+        <v>91.00893389376799</v>
       </c>
       <c r="S9">
-        <v>0.004494502704388383</v>
+        <v>0.0001347390284404008</v>
       </c>
       <c r="T9">
-        <v>0.004494502704388383</v>
+        <v>0.0001347390284404008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>9.441441489653691</v>
+        <v>13875.99150036391</v>
       </c>
       <c r="R10">
-        <v>9.441441489653691</v>
+        <v>124883.9235032752</v>
       </c>
       <c r="S10">
-        <v>0.0001390278161772326</v>
+        <v>0.1848910628960667</v>
       </c>
       <c r="T10">
-        <v>0.0001390278161772326</v>
+        <v>0.1848910628960667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>13.32892698563936</v>
+        <v>18716.88763828388</v>
       </c>
       <c r="R11">
-        <v>13.32892698563936</v>
+        <v>168451.988744555</v>
       </c>
       <c r="S11">
-        <v>0.0001962721066301068</v>
+        <v>0.2493937279694789</v>
       </c>
       <c r="T11">
-        <v>0.0001962721066301068</v>
+        <v>0.2493937279694789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>10.11127997565128</v>
+        <v>14431.01053978448</v>
       </c>
       <c r="R12">
-        <v>10.11127997565128</v>
+        <v>129879.0948580604</v>
       </c>
       <c r="S12">
-        <v>0.0001488913716525018</v>
+        <v>0.1922864306521894</v>
       </c>
       <c r="T12">
-        <v>0.0001488913716525018</v>
+        <v>0.1922864306521894</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>0.2277530722601505</v>
+        <v>370.5874178969576</v>
       </c>
       <c r="R13">
-        <v>0.2277530722601505</v>
+        <v>3335.286761072618</v>
       </c>
       <c r="S13">
-        <v>3.353726472666579E-06</v>
+        <v>0.004937903110497031</v>
       </c>
       <c r="T13">
-        <v>3.353726472666579E-06</v>
+        <v>0.004937903110497031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>22.48687086365633</v>
+        <v>0.018833922976</v>
       </c>
       <c r="R14">
-        <v>22.48687086365633</v>
+        <v>0.169505306784</v>
       </c>
       <c r="S14">
-        <v>0.000331125342698941</v>
+        <v>2.509531688199698E-07</v>
       </c>
       <c r="T14">
-        <v>0.000331125342698941</v>
+        <v>2.509531688199698E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>31.74577316457745</v>
+        <v>0.008643229407999999</v>
       </c>
       <c r="R15">
-        <v>31.74577316457745</v>
+        <v>0.077789064672</v>
       </c>
       <c r="S15">
-        <v>0.0004674652192427964</v>
+        <v>1.151669682168479E-07</v>
       </c>
       <c r="T15">
-        <v>0.0004674652192427964</v>
+        <v>1.151669682168478E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>24.08223864204493</v>
+        <v>11.860378470864</v>
       </c>
       <c r="R16">
-        <v>24.08223864204493</v>
+        <v>106.743406237776</v>
       </c>
       <c r="S16">
-        <v>0.0003546175709219246</v>
+        <v>0.0001580339669255462</v>
       </c>
       <c r="T16">
-        <v>0.0003546175709219246</v>
+        <v>0.0001580339669255462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>0.5424440675004222</v>
+        <v>15.998090744064</v>
       </c>
       <c r="R17">
-        <v>0.5424440675004222</v>
+        <v>143.982816696576</v>
       </c>
       <c r="S17">
-        <v>7.987637712474476E-06</v>
+        <v>0.0002131670376059358</v>
       </c>
       <c r="T17">
-        <v>7.987637712474476E-06</v>
+        <v>0.0002131670376059358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N18">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q18">
-        <v>43.31784527078595</v>
+        <v>12.334775984432</v>
       </c>
       <c r="R18">
-        <v>43.31784527078595</v>
+        <v>111.012983859888</v>
       </c>
       <c r="S18">
-        <v>0.0006378671557833836</v>
+        <v>0.0001643550907541778</v>
       </c>
       <c r="T18">
-        <v>0.0006378671557833836</v>
+        <v>0.0001643550907541777</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N19">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q19">
-        <v>61.15383942401652</v>
+        <v>0.316756250008</v>
       </c>
       <c r="R19">
-        <v>61.15383942401652</v>
+        <v>2.850806250072</v>
       </c>
       <c r="S19">
-        <v>0.0009005070629618466</v>
+        <v>4.220628107289877E-06</v>
       </c>
       <c r="T19">
-        <v>0.0009005070629618466</v>
+        <v>4.220628107289877E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.768454201671312</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.768454201671312</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N20">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q20">
-        <v>46.39110054908829</v>
+        <v>0.04372411906444444</v>
       </c>
       <c r="R20">
-        <v>46.39110054908829</v>
+        <v>0.39351707158</v>
       </c>
       <c r="S20">
-        <v>0.0006831216828983103</v>
+        <v>5.826033294851247E-07</v>
       </c>
       <c r="T20">
-        <v>0.0006831216828983103</v>
+        <v>5.826033294851246E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.768454201671312</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.768454201671312</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N21">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q21">
-        <v>1.044943439507901</v>
+        <v>0.02006579257111111</v>
       </c>
       <c r="R21">
-        <v>1.044943439507901</v>
+        <v>0.18059213314</v>
       </c>
       <c r="S21">
-        <v>1.538707882506174E-05</v>
+        <v>2.67367252006996E-07</v>
       </c>
       <c r="T21">
-        <v>1.538707882506174E-05</v>
+        <v>2.673672520069959E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N22">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q22">
-        <v>1144.651656599192</v>
+        <v>27.53460344243</v>
       </c>
       <c r="R22">
-        <v>1144.651656599192</v>
+        <v>247.81143098187</v>
       </c>
       <c r="S22">
-        <v>0.01685530967649669</v>
+        <v>0.0003668856453795799</v>
       </c>
       <c r="T22">
-        <v>0.01685530967649669</v>
+        <v>0.0003668856453795799</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N23">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O23">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P23">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q23">
-        <v>1615.958577037307</v>
+        <v>37.14055884101334</v>
       </c>
       <c r="R23">
-        <v>1615.958577037307</v>
+        <v>334.26502956912</v>
       </c>
       <c r="S23">
-        <v>0.02379543338213343</v>
+        <v>0.0004948804847919351</v>
       </c>
       <c r="T23">
-        <v>0.02379543338213343</v>
+        <v>0.000494880484791935</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N24">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q24">
-        <v>1225.860837791624</v>
+        <v>28.63594666197888</v>
       </c>
       <c r="R24">
-        <v>1225.860837791624</v>
+        <v>257.72351995781</v>
       </c>
       <c r="S24">
-        <v>0.01805113714914453</v>
+        <v>0.0003815605259796747</v>
       </c>
       <c r="T24">
-        <v>0.01805113714914453</v>
+        <v>0.0003815605259796747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N25">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q25">
-        <v>27.61208992756245</v>
+        <v>0.7353692593627777</v>
       </c>
       <c r="R25">
-        <v>27.61208992756245</v>
+        <v>6.618323334265001</v>
       </c>
       <c r="S25">
-        <v>0.0004065955995093684</v>
+        <v>9.798449644561368E-06</v>
       </c>
       <c r="T25">
-        <v>0.0004065955995093684</v>
+        <v>9.798449644561368E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.318871</v>
+      </c>
+      <c r="I26">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J26">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>0.07482120699066665</v>
+      </c>
+      <c r="R26">
+        <v>0.6733908629159999</v>
+      </c>
+      <c r="S26">
+        <v>9.96957405696607E-07</v>
+      </c>
+      <c r="T26">
+        <v>9.96957405696607E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.318871</v>
+      </c>
+      <c r="I27">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J27">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>0.03433681115866666</v>
+      </c>
+      <c r="R27">
+        <v>0.309031300428</v>
+      </c>
+      <c r="S27">
+        <v>4.575218651165148E-07</v>
+      </c>
+      <c r="T27">
+        <v>4.575218651165148E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.318871</v>
+      </c>
+      <c r="I28">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J28">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>47.11752478158599</v>
+      </c>
+      <c r="R28">
+        <v>424.0577230342739</v>
+      </c>
+      <c r="S28">
+        <v>0.0006278188652443846</v>
+      </c>
+      <c r="T28">
+        <v>0.0006278188652443846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.318871</v>
+      </c>
+      <c r="I29">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J29">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>63.555344287136</v>
+      </c>
+      <c r="R29">
+        <v>571.998098584224</v>
+      </c>
+      <c r="S29">
+        <v>0.0008468450818570954</v>
+      </c>
+      <c r="T29">
+        <v>0.0008468450818570953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.318871</v>
+      </c>
+      <c r="I30">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J30">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>49.00215575325132</v>
+      </c>
+      <c r="R30">
+        <v>441.0194017792619</v>
+      </c>
+      <c r="S30">
+        <v>0.0006529306868759353</v>
+      </c>
+      <c r="T30">
+        <v>0.0006529306868759352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.318871</v>
+      </c>
+      <c r="I31">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J31">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>1.258372192433667</v>
+      </c>
+      <c r="R31">
+        <v>11.325349731903</v>
+      </c>
+      <c r="S31">
+        <v>1.676721783605969E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.676721783605969E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H32">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I32">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J32">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>2.134494653508888</v>
+      </c>
+      <c r="R32">
+        <v>19.21045188158</v>
+      </c>
+      <c r="S32">
+        <v>2.844113771782578E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.844113771782578E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H33">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I33">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J33">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>0.9795583736822221</v>
+      </c>
+      <c r="R33">
+        <v>8.81602536314</v>
+      </c>
+      <c r="S33">
+        <v>1.305215478649571E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.30521547864957E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H34">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I34">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J34">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>1344.16576232743</v>
+      </c>
+      <c r="R34">
+        <v>12097.49186094687</v>
+      </c>
+      <c r="S34">
+        <v>0.01791037681874498</v>
+      </c>
+      <c r="T34">
+        <v>0.01791037681874498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H35">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I35">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J35">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>1813.102835934347</v>
+      </c>
+      <c r="R35">
+        <v>16317.92552340912</v>
+      </c>
+      <c r="S35">
+        <v>0.02415874285214016</v>
+      </c>
+      <c r="T35">
+        <v>0.02415874285214015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H36">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I36">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J36">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>1397.930395305867</v>
+      </c>
+      <c r="R36">
+        <v>12581.37355775281</v>
+      </c>
+      <c r="S36">
+        <v>0.01862676527555109</v>
+      </c>
+      <c r="T36">
+        <v>0.01862676527555109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H37">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I37">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J37">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>35.89876219464055</v>
+      </c>
+      <c r="R37">
+        <v>323.088859751765</v>
+      </c>
+      <c r="S37">
+        <v>0.0004783341283140852</v>
+      </c>
+      <c r="T37">
+        <v>0.0004783341283140852</v>
       </c>
     </row>
   </sheetData>
